--- a/medicine/Sexualité et sexologie/Revenge_of_the_Virgins/Revenge_of_the_Virgins.xlsx
+++ b/medicine/Sexualité et sexologie/Revenge_of_the_Virgins/Revenge_of_the_Virgins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Revenge of the Virgins est un western érotique américain réalisé par Peter Perry Jr. en 1959 sur un scénario d'Ed Wood
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Melvin Potter est sommé par son épouse Ruby de s'enrichir à tous prix. Il ne voit comme solution que de s'acoquiner avec une bande d'aventuriers assez louches. L'un d'entre-deux prétend qu'il connait un filon situé en plein territoire indien. Le groupe se met en marche tiraillé par des tensions internes d'autant qu'ils sont rejoints par deux déserteurs de la cavalerie. Ils sont vite repérés par un groupe d'amazones aux seins nus qui tiennent à défendre leur territoire et les richesses qu'il contient. Les membres du groupe seront décimés les uns après les autres.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Revenge of the Virgins
 Réalisateur : Peter Perry Jr.
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charles Veltmann Jr. : Melvin Potter
 Jodean Lawrence : Ruby Potter
